--- a/biology/Zoologie/Heteroctenus_junceus/Heteroctenus_junceus.xlsx
+++ b/biology/Zoologie/Heteroctenus_junceus/Heteroctenus_junceus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heteroctenus junceus est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Cuba[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Cuba.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 54 à 97 mm et les femelles de 65 à 107 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 54 à 97 mm et les femelles de 65 à 107 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Scorpio junceus par Herbst en 1800. Elle est placée  dans le genre Rhopalurus par Pocock en 1902[3] puis dans le genre Heteroctenus par Esposito, Yamaguti, Souza, Pinto da Roacha et Prendini en 2017[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Scorpio junceus par Herbst en 1800. Elle est placée  dans le genre Rhopalurus par Pocock en 1902 puis dans le genre Heteroctenus par Esposito, Yamaguti, Souza, Pinto da Roacha et Prendini en 2017.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Herbst, 1800 : « Naturgeschichte der Skorpionen. » Natursystem der ungeflügelten Insekten, vol. 4, p. 1-86.</t>
         </is>
